--- a/01_PROJECT_MANAGEMENT/Gantt_Chart.xlsx
+++ b/01_PROJECT_MANAGEMENT/Gantt_Chart.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20370"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{7864499C-388C-449C-8B29-A2071D839261}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64340F8B-2220-4ACC-879E-25A09B763434}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12195" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="11" r:id="rId1"/>
@@ -22,12 +22,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="59">
   <si>
     <t>About This Template</t>
   </si>
@@ -186,6 +195,48 @@
   </si>
   <si>
     <t>Milestones</t>
+  </si>
+  <si>
+    <t>DataProvider</t>
+  </si>
+  <si>
+    <t>MainActivity</t>
+  </si>
+  <si>
+    <t>ListActivity</t>
+  </si>
+  <si>
+    <t>DetailsActivity</t>
+  </si>
+  <si>
+    <t>RecyclerView</t>
+  </si>
+  <si>
+    <t>Transitions</t>
+  </si>
+  <si>
+    <t>Resize responisveness</t>
+  </si>
+  <si>
+    <t>Aesthetics</t>
+  </si>
+  <si>
+    <t>Slides</t>
+  </si>
+  <si>
+    <t>Collect Bike Data</t>
+  </si>
+  <si>
+    <t>App Implementation</t>
+  </si>
+  <si>
+    <t>App Improvements</t>
+  </si>
+  <si>
+    <t>Project Demo</t>
+  </si>
+  <si>
+    <t>Presentation Practice</t>
   </si>
 </sst>
 </file>
@@ -767,15 +818,6 @@
   </cellStyles>
   <dxfs count="29">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="2" tint="-9.9948118533890809E-2"/>
@@ -1058,6 +1100,15 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border>
         <left style="thin">
           <color theme="0" tint="-0.24994659260841701"/>
@@ -1319,7 +1370,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
+          <xdr:colOff>31750</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
@@ -1327,7 +1378,7 @@
           <xdr:col>63</xdr:col>
           <xdr:colOff>228600</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>238125</xdr:rowOff>
+          <xdr:rowOff>241300</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1368,8 +1419,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{70B51325-D3C3-4A05-BAB3-7A7400707A14}" name="Milestones" displayName="Milestones" ref="B7:G33" totalsRowShown="0">
-  <autoFilter ref="B7:G33" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{70B51325-D3C3-4A05-BAB3-7A7400707A14}" name="Milestones" displayName="Milestones" ref="B7:G47" totalsRowShown="0">
+  <autoFilter ref="B7:G47" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1378,9 +1429,9 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{EE48C34E-B98C-4BBA-90C8-388E8655DD6D}" name="Milestone Description" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{B8ACC97F-C189-49BA-91CF-CB5671185BCF}" name="Category" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{5419FA1B-A035-4F0A-9257-1AA4BCB5E6CF}" name="Assigned To" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{EE48C34E-B98C-4BBA-90C8-388E8655DD6D}" name="Milestone Description" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{B8ACC97F-C189-49BA-91CF-CB5671185BCF}" name="Category" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{5419FA1B-A035-4F0A-9257-1AA4BCB5E6CF}" name="Assigned To" dataDxfId="14"/>
     <tableColumn id="4" xr3:uid="{A60A6524-18F0-48B7-BB3C-2F4A35799FF7}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{59612C1F-9AAB-483B-A6A5-3563E9D77941}" name="Start" dataCellStyle="Date"/>
     <tableColumn id="6" xr3:uid="{012C59F1-49D4-4A67-B8DD-855C6581FD6A}" name="No. Days" dataCellStyle="Comma [0]"/>
@@ -1660,27 +1711,27 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL36"/>
+  <dimension ref="A1:BL50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A10" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="14" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="20" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" customWidth="1"/>
-    <col min="8" max="8" width="2.7109375" customWidth="1"/>
-    <col min="9" max="64" width="3.5703125" customWidth="1"/>
-    <col min="69" max="70" width="10.28515625"/>
+    <col min="1" max="1" width="2.7265625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="19.81640625" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" style="20" customWidth="1"/>
+    <col min="4" max="4" width="20.54296875" customWidth="1"/>
+    <col min="5" max="5" width="10.7265625" customWidth="1"/>
+    <col min="6" max="6" width="10.453125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" customWidth="1"/>
+    <col min="8" max="8" width="2.7265625" customWidth="1"/>
+    <col min="9" max="64" width="3.54296875" customWidth="1"/>
+    <col min="69" max="70" width="10.26953125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A1" s="15" t="s">
         <v>27</v>
       </c>
@@ -1719,7 +1770,7 @@
       <c r="AF1" s="20"/>
       <c r="AG1" s="20"/>
     </row>
-    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="15" t="s">
         <v>19</v>
       </c>
@@ -1763,7 +1814,7 @@
       <c r="AE2" s="53"/>
       <c r="AF2" s="53"/>
     </row>
-    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>28</v>
       </c>
@@ -1781,7 +1832,7 @@
       <c r="G3" s="58"/>
       <c r="H3" s="22"/>
     </row>
-    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="15" t="s">
         <v>20</v>
       </c>
@@ -1873,7 +1924,7 @@
       <c r="BK4" s="44"/>
       <c r="BL4" s="44"/>
     </row>
-    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
         <v>21</v>
       </c>
@@ -2109,7 +2160,7 @@
         <v>44382</v>
       </c>
     </row>
-    <row r="6" spans="1:64" s="20" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:64" s="20" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
         <v>22</v>
       </c>
@@ -2177,7 +2228,7 @@
       <c r="BK6" s="47"/>
       <c r="BL6" s="48"/>
     </row>
-    <row r="7" spans="1:64" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:64" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="15" t="s">
         <v>23</v>
       </c>
@@ -2425,7 +2476,7 @@
         <v>M</v>
       </c>
     </row>
-    <row r="8" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="14" t="s">
         <v>29</v>
       </c>
@@ -2492,7 +2543,7 @@
       <c r="BK8" s="36"/>
       <c r="BL8" s="36"/>
     </row>
-    <row r="9" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="15" t="s">
         <v>24</v>
       </c>
@@ -2506,7 +2557,7 @@
       <c r="G9" s="33"/>
       <c r="H9" s="26"/>
       <c r="I9" s="38" t="str">
-        <f t="shared" ref="I9:X24" ca="1" si="6">IF(AND($C9="Goal",I$5&gt;=$F9,I$5&lt;=$F9+$G9-1),2,IF(AND($C9="Milestone",I$5&gt;=$F9,I$5&lt;=$F9+$G9-1),1,""))</f>
+        <f t="shared" ref="I9:X38" ca="1" si="6">IF(AND($C9="Goal",I$5&gt;=$F9,I$5&lt;=$F9+$G9-1),2,IF(AND($C9="Milestone",I$5&gt;=$F9,I$5&lt;=$F9+$G9-1),1,""))</f>
         <v/>
       </c>
       <c r="J9" s="38" t="str">
@@ -2570,7 +2621,7 @@
         <v/>
       </c>
       <c r="Y9" s="38" t="str">
-        <f t="shared" ref="Y9:AN24" ca="1" si="7">IF(AND($C9="Goal",Y$5&gt;=$F9,Y$5&lt;=$F9+$G9-1),2,IF(AND($C9="Milestone",Y$5&gt;=$F9,Y$5&lt;=$F9+$G9-1),1,""))</f>
+        <f t="shared" ref="Y9:AN38" ca="1" si="7">IF(AND($C9="Goal",Y$5&gt;=$F9,Y$5&lt;=$F9+$G9-1),2,IF(AND($C9="Milestone",Y$5&gt;=$F9,Y$5&lt;=$F9+$G9-1),1,""))</f>
         <v/>
       </c>
       <c r="Z9" s="38" t="str">
@@ -2634,7 +2685,7 @@
         <v/>
       </c>
       <c r="AO9" s="38" t="str">
-        <f t="shared" ref="AO9:BD24" ca="1" si="8">IF(AND($C9="Goal",AO$5&gt;=$F9,AO$5&lt;=$F9+$G9-1),2,IF(AND($C9="Milestone",AO$5&gt;=$F9,AO$5&lt;=$F9+$G9-1),1,""))</f>
+        <f t="shared" ref="AO9:BD38" ca="1" si="8">IF(AND($C9="Goal",AO$5&gt;=$F9,AO$5&lt;=$F9+$G9-1),2,IF(AND($C9="Milestone",AO$5&gt;=$F9,AO$5&lt;=$F9+$G9-1),1,""))</f>
         <v/>
       </c>
       <c r="AP9" s="38" t="str">
@@ -2698,7 +2749,7 @@
         <v/>
       </c>
       <c r="BE9" s="38" t="str">
-        <f t="shared" ref="BE9:BL24" ca="1" si="9">IF(AND($C9="Goal",BE$5&gt;=$F9,BE$5&lt;=$F9+$G9-1),2,IF(AND($C9="Milestone",BE$5&gt;=$F9,BE$5&lt;=$F9+$G9-1),1,""))</f>
+        <f t="shared" ref="BE9:BL38" ca="1" si="9">IF(AND($C9="Goal",BE$5&gt;=$F9,BE$5&lt;=$F9+$G9-1),2,IF(AND($C9="Milestone",BE$5&gt;=$F9,BE$5&lt;=$F9+$G9-1),1,""))</f>
         <v/>
       </c>
       <c r="BF9" s="38" t="str">
@@ -2730,7 +2781,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="15"/>
       <c r="B10" s="41" t="s">
         <v>36</v>
@@ -2742,7 +2793,7 @@
         <v>41</v>
       </c>
       <c r="E10" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="32">
         <v>44329</v>
@@ -2976,7 +3027,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="15"/>
       <c r="B11" s="41" t="s">
         <v>37</v>
@@ -2985,10 +3036,10 @@
         <v>13</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E11" s="31">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F11" s="32">
         <v>44327</v>
@@ -2998,7 +3049,7 @@
       </c>
       <c r="H11" s="26"/>
       <c r="I11" s="38" t="str">
-        <f t="shared" ref="I11:X26" ca="1" si="10">IF(AND($C11="Goal",I$5&gt;=$F11,I$5&lt;=$F11+$G11-1),2,IF(AND($C11="Milestone",I$5&gt;=$F11,I$5&lt;=$F11+$G11-1),1,""))</f>
+        <f t="shared" ref="I11:X40" ca="1" si="10">IF(AND($C11="Goal",I$5&gt;=$F11,I$5&lt;=$F11+$G11-1),2,IF(AND($C11="Milestone",I$5&gt;=$F11,I$5&lt;=$F11+$G11-1),1,""))</f>
         <v/>
       </c>
       <c r="J11" s="38" t="str">
@@ -3222,7 +3273,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="14"/>
       <c r="B12" s="41" t="s">
         <v>38</v>
@@ -3231,10 +3282,10 @@
         <v>13</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E12" s="31">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F12" s="32">
         <v>44327</v>
@@ -3468,7 +3519,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="14"/>
       <c r="B13" s="41" t="s">
         <v>39</v>
@@ -3477,10 +3528,10 @@
         <v>13</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E13" s="31">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F13" s="32">
         <v>44327</v>
@@ -3714,7 +3765,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="14"/>
       <c r="B14" s="41" t="s">
         <v>40</v>
@@ -3726,7 +3777,7 @@
         <v>41</v>
       </c>
       <c r="E14" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="32">
         <v>44327</v>
@@ -3960,10 +4011,10 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
+    <row r="15" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="14"/>
       <c r="B15" s="42" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C15" s="34"/>
       <c r="D15" s="34"/>
@@ -3971,3288 +4022,1068 @@
       <c r="F15" s="32"/>
       <c r="G15" s="33"/>
       <c r="H15" s="26"/>
-      <c r="I15" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="J15" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="K15" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="L15" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="M15" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="N15" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="O15" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="P15" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="Q15" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="R15" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="S15" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="T15" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="U15" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="V15" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="W15" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="X15" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="Y15" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="Z15" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AA15" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AB15" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AC15" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AD15" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AE15" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AF15" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AG15" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AH15" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AI15" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AJ15" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AK15" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AL15" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AM15" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AN15" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AO15" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AP15" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AQ15" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AR15" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AS15" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AT15" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AU15" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AV15" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AW15" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AX15" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AY15" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AZ15" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BA15" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BB15" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BC15" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BD15" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BE15" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BF15" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BG15" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BH15" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BI15" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BJ15" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BK15" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BL15" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="38"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="38"/>
+      <c r="T15" s="38"/>
+      <c r="U15" s="38"/>
+      <c r="V15" s="38"/>
+      <c r="W15" s="38"/>
+      <c r="X15" s="38"/>
+      <c r="Y15" s="38"/>
+      <c r="Z15" s="38"/>
+      <c r="AA15" s="38"/>
+      <c r="AB15" s="38"/>
+      <c r="AC15" s="38"/>
+      <c r="AD15" s="38"/>
+      <c r="AE15" s="38"/>
+      <c r="AF15" s="38"/>
+      <c r="AG15" s="38"/>
+      <c r="AH15" s="38"/>
+      <c r="AI15" s="38"/>
+      <c r="AJ15" s="38"/>
+      <c r="AK15" s="38"/>
+      <c r="AL15" s="38"/>
+      <c r="AM15" s="38"/>
+      <c r="AN15" s="38"/>
+      <c r="AO15" s="38"/>
+      <c r="AP15" s="38"/>
+      <c r="AQ15" s="38"/>
+      <c r="AR15" s="38"/>
+      <c r="AS15" s="38"/>
+      <c r="AT15" s="38"/>
+      <c r="AU15" s="38"/>
+      <c r="AV15" s="38"/>
+      <c r="AW15" s="38"/>
+      <c r="AX15" s="38"/>
+      <c r="AY15" s="38"/>
+      <c r="AZ15" s="38"/>
+      <c r="BA15" s="38"/>
+      <c r="BB15" s="38"/>
+      <c r="BC15" s="38"/>
+      <c r="BD15" s="38"/>
+      <c r="BE15" s="38"/>
+      <c r="BF15" s="38"/>
+      <c r="BG15" s="38"/>
+      <c r="BH15" s="38"/>
+      <c r="BI15" s="38"/>
+      <c r="BJ15" s="38"/>
+      <c r="BK15" s="38"/>
+      <c r="BL15" s="38"/>
     </row>
-    <row r="16" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
+    <row r="16" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="14"/>
       <c r="B16" s="41" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E16" s="31">
         <v>0</v>
       </c>
       <c r="F16" s="32">
-        <v>44332</v>
+        <v>44333</v>
       </c>
       <c r="G16" s="33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H16" s="26"/>
-      <c r="I16" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="J16" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="K16" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="L16" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="M16" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="N16" s="38">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="O16" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="P16" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="Q16" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="R16" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="S16" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="T16" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="U16" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="V16" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="W16" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="X16" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="Y16" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="Z16" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AA16" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AB16" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AC16" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AD16" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AE16" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AF16" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AG16" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AH16" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AI16" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AJ16" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AK16" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AL16" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AM16" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AN16" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AO16" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AP16" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AQ16" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AR16" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AS16" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AT16" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AU16" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AV16" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AW16" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AX16" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AY16" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AZ16" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BA16" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BB16" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BC16" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BD16" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BE16" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BF16" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BG16" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BH16" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BI16" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BJ16" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BK16" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BL16" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="38"/>
+      <c r="T16" s="38"/>
+      <c r="U16" s="38"/>
+      <c r="V16" s="38"/>
+      <c r="W16" s="38"/>
+      <c r="X16" s="38"/>
+      <c r="Y16" s="38"/>
+      <c r="Z16" s="38"/>
+      <c r="AA16" s="38"/>
+      <c r="AB16" s="38"/>
+      <c r="AC16" s="38"/>
+      <c r="AD16" s="38"/>
+      <c r="AE16" s="38"/>
+      <c r="AF16" s="38"/>
+      <c r="AG16" s="38"/>
+      <c r="AH16" s="38"/>
+      <c r="AI16" s="38"/>
+      <c r="AJ16" s="38"/>
+      <c r="AK16" s="38"/>
+      <c r="AL16" s="38"/>
+      <c r="AM16" s="38"/>
+      <c r="AN16" s="38"/>
+      <c r="AO16" s="38"/>
+      <c r="AP16" s="38"/>
+      <c r="AQ16" s="38"/>
+      <c r="AR16" s="38"/>
+      <c r="AS16" s="38"/>
+      <c r="AT16" s="38"/>
+      <c r="AU16" s="38"/>
+      <c r="AV16" s="38"/>
+      <c r="AW16" s="38"/>
+      <c r="AX16" s="38"/>
+      <c r="AY16" s="38"/>
+      <c r="AZ16" s="38"/>
+      <c r="BA16" s="38"/>
+      <c r="BB16" s="38"/>
+      <c r="BC16" s="38"/>
+      <c r="BD16" s="38"/>
+      <c r="BE16" s="38"/>
+      <c r="BF16" s="38"/>
+      <c r="BG16" s="38"/>
+      <c r="BH16" s="38"/>
+      <c r="BI16" s="38"/>
+      <c r="BJ16" s="38"/>
+      <c r="BK16" s="38"/>
+      <c r="BL16" s="38"/>
     </row>
-    <row r="17" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="14"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="33"/>
+      <c r="B17" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="31">
+        <v>0</v>
+      </c>
+      <c r="F17" s="32">
+        <f>F16+G16</f>
+        <v>44336</v>
+      </c>
+      <c r="G17" s="33">
+        <v>3</v>
+      </c>
       <c r="H17" s="26"/>
-      <c r="I17" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="J17" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="K17" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="L17" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="M17" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="N17" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="O17" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="P17" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="Q17" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="R17" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="S17" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="T17" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="U17" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="V17" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="W17" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="X17" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="Y17" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="Z17" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AA17" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AB17" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AC17" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AD17" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AE17" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AF17" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AG17" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AH17" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AI17" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AJ17" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AK17" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AL17" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AM17" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AN17" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AO17" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AP17" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AQ17" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AR17" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AS17" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AT17" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AU17" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AV17" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AW17" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AX17" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AY17" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AZ17" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BA17" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BB17" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BC17" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BD17" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BE17" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BF17" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BG17" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BH17" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BI17" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BJ17" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BK17" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BL17" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="38"/>
+      <c r="T17" s="38"/>
+      <c r="U17" s="38"/>
+      <c r="V17" s="38"/>
+      <c r="W17" s="38"/>
+      <c r="X17" s="38"/>
+      <c r="Y17" s="38"/>
+      <c r="Z17" s="38"/>
+      <c r="AA17" s="38"/>
+      <c r="AB17" s="38"/>
+      <c r="AC17" s="38"/>
+      <c r="AD17" s="38"/>
+      <c r="AE17" s="38"/>
+      <c r="AF17" s="38"/>
+      <c r="AG17" s="38"/>
+      <c r="AH17" s="38"/>
+      <c r="AI17" s="38"/>
+      <c r="AJ17" s="38"/>
+      <c r="AK17" s="38"/>
+      <c r="AL17" s="38"/>
+      <c r="AM17" s="38"/>
+      <c r="AN17" s="38"/>
+      <c r="AO17" s="38"/>
+      <c r="AP17" s="38"/>
+      <c r="AQ17" s="38"/>
+      <c r="AR17" s="38"/>
+      <c r="AS17" s="38"/>
+      <c r="AT17" s="38"/>
+      <c r="AU17" s="38"/>
+      <c r="AV17" s="38"/>
+      <c r="AW17" s="38"/>
+      <c r="AX17" s="38"/>
+      <c r="AY17" s="38"/>
+      <c r="AZ17" s="38"/>
+      <c r="BA17" s="38"/>
+      <c r="BB17" s="38"/>
+      <c r="BC17" s="38"/>
+      <c r="BD17" s="38"/>
+      <c r="BE17" s="38"/>
+      <c r="BF17" s="38"/>
+      <c r="BG17" s="38"/>
+      <c r="BH17" s="38"/>
+      <c r="BI17" s="38"/>
+      <c r="BJ17" s="38"/>
+      <c r="BK17" s="38"/>
+      <c r="BL17" s="38"/>
     </row>
-    <row r="18" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="14"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="33"/>
+      <c r="B18" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="31">
+        <v>0</v>
+      </c>
+      <c r="F18" s="32">
+        <v>44333</v>
+      </c>
+      <c r="G18" s="33">
+        <v>3</v>
+      </c>
       <c r="H18" s="26"/>
-      <c r="I18" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="J18" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="K18" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="L18" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="M18" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="N18" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="O18" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="P18" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="Q18" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="R18" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="S18" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="T18" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="U18" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="V18" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="W18" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="X18" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="Y18" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="Z18" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AA18" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AB18" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AC18" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AD18" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AE18" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AF18" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AG18" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AH18" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AI18" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AJ18" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AK18" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AL18" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AM18" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AN18" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AO18" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AP18" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AQ18" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AR18" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AS18" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AT18" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AU18" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AV18" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AW18" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AX18" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AY18" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AZ18" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BA18" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BB18" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BC18" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BD18" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BE18" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BF18" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BG18" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BH18" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BI18" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BJ18" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BK18" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BL18" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="38"/>
+      <c r="R18" s="38"/>
+      <c r="S18" s="38"/>
+      <c r="T18" s="38"/>
+      <c r="U18" s="38"/>
+      <c r="V18" s="38"/>
+      <c r="W18" s="38"/>
+      <c r="X18" s="38"/>
+      <c r="Y18" s="38"/>
+      <c r="Z18" s="38"/>
+      <c r="AA18" s="38"/>
+      <c r="AB18" s="38"/>
+      <c r="AC18" s="38"/>
+      <c r="AD18" s="38"/>
+      <c r="AE18" s="38"/>
+      <c r="AF18" s="38"/>
+      <c r="AG18" s="38"/>
+      <c r="AH18" s="38"/>
+      <c r="AI18" s="38"/>
+      <c r="AJ18" s="38"/>
+      <c r="AK18" s="38"/>
+      <c r="AL18" s="38"/>
+      <c r="AM18" s="38"/>
+      <c r="AN18" s="38"/>
+      <c r="AO18" s="38"/>
+      <c r="AP18" s="38"/>
+      <c r="AQ18" s="38"/>
+      <c r="AR18" s="38"/>
+      <c r="AS18" s="38"/>
+      <c r="AT18" s="38"/>
+      <c r="AU18" s="38"/>
+      <c r="AV18" s="38"/>
+      <c r="AW18" s="38"/>
+      <c r="AX18" s="38"/>
+      <c r="AY18" s="38"/>
+      <c r="AZ18" s="38"/>
+      <c r="BA18" s="38"/>
+      <c r="BB18" s="38"/>
+      <c r="BC18" s="38"/>
+      <c r="BD18" s="38"/>
+      <c r="BE18" s="38"/>
+      <c r="BF18" s="38"/>
+      <c r="BG18" s="38"/>
+      <c r="BH18" s="38"/>
+      <c r="BI18" s="38"/>
+      <c r="BJ18" s="38"/>
+      <c r="BK18" s="38"/>
+      <c r="BL18" s="38"/>
     </row>
-    <row r="19" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="14"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="33"/>
+      <c r="B19" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="31">
+        <v>0</v>
+      </c>
+      <c r="F19" s="32">
+        <f>F17+G17</f>
+        <v>44339</v>
+      </c>
+      <c r="G19" s="33">
+        <v>3</v>
+      </c>
       <c r="H19" s="26"/>
-      <c r="I19" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="J19" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="K19" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="L19" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="M19" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="N19" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="O19" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="P19" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="Q19" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="R19" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="S19" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="T19" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="U19" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="V19" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="W19" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="X19" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="Y19" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="Z19" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AA19" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AB19" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AC19" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AD19" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AE19" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AF19" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AG19" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AH19" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AI19" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AJ19" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AK19" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AL19" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AM19" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AN19" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AO19" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AP19" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AQ19" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AR19" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AS19" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AT19" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AU19" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AV19" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AW19" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AX19" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AY19" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AZ19" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BA19" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BB19" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BC19" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BD19" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BE19" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BF19" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BG19" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BH19" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BI19" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BJ19" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BK19" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BL19" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="38"/>
+      <c r="R19" s="38"/>
+      <c r="S19" s="38"/>
+      <c r="T19" s="38"/>
+      <c r="U19" s="38"/>
+      <c r="V19" s="38"/>
+      <c r="W19" s="38"/>
+      <c r="X19" s="38"/>
+      <c r="Y19" s="38"/>
+      <c r="Z19" s="38"/>
+      <c r="AA19" s="38"/>
+      <c r="AB19" s="38"/>
+      <c r="AC19" s="38"/>
+      <c r="AD19" s="38"/>
+      <c r="AE19" s="38"/>
+      <c r="AF19" s="38"/>
+      <c r="AG19" s="38"/>
+      <c r="AH19" s="38"/>
+      <c r="AI19" s="38"/>
+      <c r="AJ19" s="38"/>
+      <c r="AK19" s="38"/>
+      <c r="AL19" s="38"/>
+      <c r="AM19" s="38"/>
+      <c r="AN19" s="38"/>
+      <c r="AO19" s="38"/>
+      <c r="AP19" s="38"/>
+      <c r="AQ19" s="38"/>
+      <c r="AR19" s="38"/>
+      <c r="AS19" s="38"/>
+      <c r="AT19" s="38"/>
+      <c r="AU19" s="38"/>
+      <c r="AV19" s="38"/>
+      <c r="AW19" s="38"/>
+      <c r="AX19" s="38"/>
+      <c r="AY19" s="38"/>
+      <c r="AZ19" s="38"/>
+      <c r="BA19" s="38"/>
+      <c r="BB19" s="38"/>
+      <c r="BC19" s="38"/>
+      <c r="BD19" s="38"/>
+      <c r="BE19" s="38"/>
+      <c r="BF19" s="38"/>
+      <c r="BG19" s="38"/>
+      <c r="BH19" s="38"/>
+      <c r="BI19" s="38"/>
+      <c r="BJ19" s="38"/>
+      <c r="BK19" s="38"/>
+      <c r="BL19" s="38"/>
     </row>
-    <row r="20" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="14"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="33"/>
+      <c r="B20" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="31">
+        <v>0</v>
+      </c>
+      <c r="F20" s="32">
+        <f>F18+G18</f>
+        <v>44336</v>
+      </c>
+      <c r="G20" s="33">
+        <v>3</v>
+      </c>
       <c r="H20" s="26"/>
-      <c r="I20" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="J20" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="K20" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="L20" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="M20" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="N20" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="O20" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="P20" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="Q20" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="R20" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="S20" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="T20" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="U20" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="V20" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="W20" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="X20" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="Y20" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="Z20" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AA20" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AB20" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AC20" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AD20" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AE20" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AF20" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AG20" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AH20" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AI20" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AJ20" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AK20" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AL20" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AM20" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AN20" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AO20" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AP20" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AQ20" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AR20" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AS20" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AT20" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AU20" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AV20" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AW20" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AX20" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AY20" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AZ20" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BA20" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BB20" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BC20" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BD20" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BE20" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BF20" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BG20" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BH20" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BI20" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BJ20" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BK20" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BL20" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="38"/>
+      <c r="R20" s="38"/>
+      <c r="S20" s="38"/>
+      <c r="T20" s="38"/>
+      <c r="U20" s="38"/>
+      <c r="V20" s="38"/>
+      <c r="W20" s="38"/>
+      <c r="X20" s="38"/>
+      <c r="Y20" s="38"/>
+      <c r="Z20" s="38"/>
+      <c r="AA20" s="38"/>
+      <c r="AB20" s="38"/>
+      <c r="AC20" s="38"/>
+      <c r="AD20" s="38"/>
+      <c r="AE20" s="38"/>
+      <c r="AF20" s="38"/>
+      <c r="AG20" s="38"/>
+      <c r="AH20" s="38"/>
+      <c r="AI20" s="38"/>
+      <c r="AJ20" s="38"/>
+      <c r="AK20" s="38"/>
+      <c r="AL20" s="38"/>
+      <c r="AM20" s="38"/>
+      <c r="AN20" s="38"/>
+      <c r="AO20" s="38"/>
+      <c r="AP20" s="38"/>
+      <c r="AQ20" s="38"/>
+      <c r="AR20" s="38"/>
+      <c r="AS20" s="38"/>
+      <c r="AT20" s="38"/>
+      <c r="AU20" s="38"/>
+      <c r="AV20" s="38"/>
+      <c r="AW20" s="38"/>
+      <c r="AX20" s="38"/>
+      <c r="AY20" s="38"/>
+      <c r="AZ20" s="38"/>
+      <c r="BA20" s="38"/>
+      <c r="BB20" s="38"/>
+      <c r="BC20" s="38"/>
+      <c r="BD20" s="38"/>
+      <c r="BE20" s="38"/>
+      <c r="BF20" s="38"/>
+      <c r="BG20" s="38"/>
+      <c r="BH20" s="38"/>
+      <c r="BI20" s="38"/>
+      <c r="BJ20" s="38"/>
+      <c r="BK20" s="38"/>
+      <c r="BL20" s="38"/>
     </row>
-    <row r="21" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="14"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="33"/>
+      <c r="B21" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="31">
+        <v>0</v>
+      </c>
+      <c r="F21" s="32">
+        <f>F20+G20</f>
+        <v>44339</v>
+      </c>
+      <c r="G21" s="33">
+        <v>3</v>
+      </c>
       <c r="H21" s="26"/>
-      <c r="I21" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="J21" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="K21" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="L21" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="M21" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="N21" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="O21" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="P21" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="Q21" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="R21" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="S21" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="T21" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="U21" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="V21" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="W21" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="X21" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="Y21" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="Z21" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AA21" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AB21" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AC21" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AD21" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AE21" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AF21" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AG21" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AH21" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AI21" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AJ21" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AK21" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AL21" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AM21" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AN21" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AO21" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AP21" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AQ21" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AR21" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AS21" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AT21" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AU21" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AV21" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AW21" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AX21" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AY21" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AZ21" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BA21" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BB21" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BC21" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BD21" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BE21" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BF21" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BG21" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BH21" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BI21" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BJ21" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BK21" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BL21" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="38"/>
+      <c r="S21" s="38"/>
+      <c r="T21" s="38"/>
+      <c r="U21" s="38"/>
+      <c r="V21" s="38"/>
+      <c r="W21" s="38"/>
+      <c r="X21" s="38"/>
+      <c r="Y21" s="38"/>
+      <c r="Z21" s="38"/>
+      <c r="AA21" s="38"/>
+      <c r="AB21" s="38"/>
+      <c r="AC21" s="38"/>
+      <c r="AD21" s="38"/>
+      <c r="AE21" s="38"/>
+      <c r="AF21" s="38"/>
+      <c r="AG21" s="38"/>
+      <c r="AH21" s="38"/>
+      <c r="AI21" s="38"/>
+      <c r="AJ21" s="38"/>
+      <c r="AK21" s="38"/>
+      <c r="AL21" s="38"/>
+      <c r="AM21" s="38"/>
+      <c r="AN21" s="38"/>
+      <c r="AO21" s="38"/>
+      <c r="AP21" s="38"/>
+      <c r="AQ21" s="38"/>
+      <c r="AR21" s="38"/>
+      <c r="AS21" s="38"/>
+      <c r="AT21" s="38"/>
+      <c r="AU21" s="38"/>
+      <c r="AV21" s="38"/>
+      <c r="AW21" s="38"/>
+      <c r="AX21" s="38"/>
+      <c r="AY21" s="38"/>
+      <c r="AZ21" s="38"/>
+      <c r="BA21" s="38"/>
+      <c r="BB21" s="38"/>
+      <c r="BC21" s="38"/>
+      <c r="BD21" s="38"/>
+      <c r="BE21" s="38"/>
+      <c r="BF21" s="38"/>
+      <c r="BG21" s="38"/>
+      <c r="BH21" s="38"/>
+      <c r="BI21" s="38"/>
+      <c r="BJ21" s="38"/>
+      <c r="BK21" s="38"/>
+      <c r="BL21" s="38"/>
     </row>
-    <row r="22" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="14"/>
-      <c r="B22" s="41"/>
+      <c r="B22" s="42" t="s">
+        <v>56</v>
+      </c>
       <c r="C22" s="34"/>
       <c r="D22" s="34"/>
       <c r="E22" s="31"/>
       <c r="F22" s="32"/>
       <c r="G22" s="33"/>
       <c r="H22" s="26"/>
-      <c r="I22" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="J22" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="K22" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="L22" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="M22" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="N22" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="O22" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="P22" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="Q22" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="R22" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="S22" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="T22" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="U22" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="V22" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="W22" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="X22" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="Y22" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="Z22" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AA22" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AB22" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AC22" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AD22" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AE22" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AF22" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AG22" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AH22" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AI22" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AJ22" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AK22" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AL22" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AM22" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AN22" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AO22" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AP22" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AQ22" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AR22" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AS22" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AT22" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AU22" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AV22" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AW22" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AX22" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AY22" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AZ22" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BA22" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BB22" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BC22" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BD22" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BE22" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BF22" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BG22" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BH22" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BI22" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BJ22" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BK22" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BL22" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="38"/>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="38"/>
+      <c r="R22" s="38"/>
+      <c r="S22" s="38"/>
+      <c r="T22" s="38"/>
+      <c r="U22" s="38"/>
+      <c r="V22" s="38"/>
+      <c r="W22" s="38"/>
+      <c r="X22" s="38"/>
+      <c r="Y22" s="38"/>
+      <c r="Z22" s="38"/>
+      <c r="AA22" s="38"/>
+      <c r="AB22" s="38"/>
+      <c r="AC22" s="38"/>
+      <c r="AD22" s="38"/>
+      <c r="AE22" s="38"/>
+      <c r="AF22" s="38"/>
+      <c r="AG22" s="38"/>
+      <c r="AH22" s="38"/>
+      <c r="AI22" s="38"/>
+      <c r="AJ22" s="38"/>
+      <c r="AK22" s="38"/>
+      <c r="AL22" s="38"/>
+      <c r="AM22" s="38"/>
+      <c r="AN22" s="38"/>
+      <c r="AO22" s="38"/>
+      <c r="AP22" s="38"/>
+      <c r="AQ22" s="38"/>
+      <c r="AR22" s="38"/>
+      <c r="AS22" s="38"/>
+      <c r="AT22" s="38"/>
+      <c r="AU22" s="38"/>
+      <c r="AV22" s="38"/>
+      <c r="AW22" s="38"/>
+      <c r="AX22" s="38"/>
+      <c r="AY22" s="38"/>
+      <c r="AZ22" s="38"/>
+      <c r="BA22" s="38"/>
+      <c r="BB22" s="38"/>
+      <c r="BC22" s="38"/>
+      <c r="BD22" s="38"/>
+      <c r="BE22" s="38"/>
+      <c r="BF22" s="38"/>
+      <c r="BG22" s="38"/>
+      <c r="BH22" s="38"/>
+      <c r="BI22" s="38"/>
+      <c r="BJ22" s="38"/>
+      <c r="BK22" s="38"/>
+      <c r="BL22" s="38"/>
     </row>
-    <row r="23" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="14"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="33"/>
+      <c r="B23" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="31">
+        <v>0</v>
+      </c>
+      <c r="F23" s="32">
+        <f>F19+G19</f>
+        <v>44342</v>
+      </c>
+      <c r="G23" s="33">
+        <v>3</v>
+      </c>
       <c r="H23" s="26"/>
-      <c r="I23" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="J23" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="K23" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="L23" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="M23" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="N23" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="O23" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="P23" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="Q23" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="R23" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="S23" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="T23" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="U23" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="V23" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="W23" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="X23" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="Y23" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="Z23" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AA23" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AB23" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AC23" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AD23" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AE23" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AF23" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AG23" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AH23" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AI23" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AJ23" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AK23" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AL23" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AM23" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AN23" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AO23" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AP23" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AQ23" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AR23" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AS23" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AT23" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AU23" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AV23" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AW23" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AX23" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AY23" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AZ23" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BA23" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BB23" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BC23" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BD23" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BE23" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BF23" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BG23" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BH23" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BI23" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BJ23" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BK23" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BL23" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="38"/>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="38"/>
+      <c r="R23" s="38"/>
+      <c r="S23" s="38"/>
+      <c r="T23" s="38"/>
+      <c r="U23" s="38"/>
+      <c r="V23" s="38"/>
+      <c r="W23" s="38"/>
+      <c r="X23" s="38"/>
+      <c r="Y23" s="38"/>
+      <c r="Z23" s="38"/>
+      <c r="AA23" s="38"/>
+      <c r="AB23" s="38"/>
+      <c r="AC23" s="38"/>
+      <c r="AD23" s="38"/>
+      <c r="AE23" s="38"/>
+      <c r="AF23" s="38"/>
+      <c r="AG23" s="38"/>
+      <c r="AH23" s="38"/>
+      <c r="AI23" s="38"/>
+      <c r="AJ23" s="38"/>
+      <c r="AK23" s="38"/>
+      <c r="AL23" s="38"/>
+      <c r="AM23" s="38"/>
+      <c r="AN23" s="38"/>
+      <c r="AO23" s="38"/>
+      <c r="AP23" s="38"/>
+      <c r="AQ23" s="38"/>
+      <c r="AR23" s="38"/>
+      <c r="AS23" s="38"/>
+      <c r="AT23" s="38"/>
+      <c r="AU23" s="38"/>
+      <c r="AV23" s="38"/>
+      <c r="AW23" s="38"/>
+      <c r="AX23" s="38"/>
+      <c r="AY23" s="38"/>
+      <c r="AZ23" s="38"/>
+      <c r="BA23" s="38"/>
+      <c r="BB23" s="38"/>
+      <c r="BC23" s="38"/>
+      <c r="BD23" s="38"/>
+      <c r="BE23" s="38"/>
+      <c r="BF23" s="38"/>
+      <c r="BG23" s="38"/>
+      <c r="BH23" s="38"/>
+      <c r="BI23" s="38"/>
+      <c r="BJ23" s="38"/>
+      <c r="BK23" s="38"/>
+      <c r="BL23" s="38"/>
     </row>
-    <row r="24" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="14"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="33"/>
+      <c r="B24" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="31">
+        <v>0</v>
+      </c>
+      <c r="F24" s="32">
+        <f>F21+G21</f>
+        <v>44342</v>
+      </c>
+      <c r="G24" s="33">
+        <v>2</v>
+      </c>
       <c r="H24" s="26"/>
-      <c r="I24" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="J24" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="K24" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="L24" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="M24" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="N24" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="O24" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="P24" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="Q24" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="R24" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="S24" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="T24" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="U24" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="V24" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="W24" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="X24" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="Y24" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="Z24" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AA24" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AB24" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AC24" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AD24" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AE24" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AF24" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AG24" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AH24" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AI24" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AJ24" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AK24" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AL24" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AM24" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AN24" s="38" t="str">
-        <f t="shared" ref="AN24:BC33" ca="1" si="11">IF(AND($C24="Goal",AN$5&gt;=$F24,AN$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AN$5&gt;=$F24,AN$5&lt;=$F24+$G24-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AO24" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AP24" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AQ24" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AR24" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AS24" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AT24" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AU24" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AV24" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AW24" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AX24" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AY24" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AZ24" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BA24" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BB24" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BC24" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BD24" s="38" t="str">
-        <f t="shared" ref="BD24:BL33" ca="1" si="12">IF(AND($C24="Goal",BD$5&gt;=$F24,BD$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",BD$5&gt;=$F24,BD$5&lt;=$F24+$G24-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BE24" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BF24" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BG24" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BH24" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BI24" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BJ24" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BK24" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BL24" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="38"/>
+      <c r="O24" s="38"/>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="38"/>
+      <c r="R24" s="38"/>
+      <c r="S24" s="38"/>
+      <c r="T24" s="38"/>
+      <c r="U24" s="38"/>
+      <c r="V24" s="38"/>
+      <c r="W24" s="38"/>
+      <c r="X24" s="38"/>
+      <c r="Y24" s="38"/>
+      <c r="Z24" s="38"/>
+      <c r="AA24" s="38"/>
+      <c r="AB24" s="38"/>
+      <c r="AC24" s="38"/>
+      <c r="AD24" s="38"/>
+      <c r="AE24" s="38"/>
+      <c r="AF24" s="38"/>
+      <c r="AG24" s="38"/>
+      <c r="AH24" s="38"/>
+      <c r="AI24" s="38"/>
+      <c r="AJ24" s="38"/>
+      <c r="AK24" s="38"/>
+      <c r="AL24" s="38"/>
+      <c r="AM24" s="38"/>
+      <c r="AN24" s="38"/>
+      <c r="AO24" s="38"/>
+      <c r="AP24" s="38"/>
+      <c r="AQ24" s="38"/>
+      <c r="AR24" s="38"/>
+      <c r="AS24" s="38"/>
+      <c r="AT24" s="38"/>
+      <c r="AU24" s="38"/>
+      <c r="AV24" s="38"/>
+      <c r="AW24" s="38"/>
+      <c r="AX24" s="38"/>
+      <c r="AY24" s="38"/>
+      <c r="AZ24" s="38"/>
+      <c r="BA24" s="38"/>
+      <c r="BB24" s="38"/>
+      <c r="BC24" s="38"/>
+      <c r="BD24" s="38"/>
+      <c r="BE24" s="38"/>
+      <c r="BF24" s="38"/>
+      <c r="BG24" s="38"/>
+      <c r="BH24" s="38"/>
+      <c r="BI24" s="38"/>
+      <c r="BJ24" s="38"/>
+      <c r="BK24" s="38"/>
+      <c r="BL24" s="38"/>
     </row>
-    <row r="25" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="14"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="33"/>
+      <c r="B25" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="31">
+        <v>0</v>
+      </c>
+      <c r="F25" s="32">
+        <v>44344</v>
+      </c>
+      <c r="G25" s="33">
+        <v>1</v>
+      </c>
       <c r="H25" s="26"/>
-      <c r="I25" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="J25" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="K25" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="L25" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="M25" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="N25" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="O25" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="P25" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="Q25" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="R25" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="S25" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="T25" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="U25" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="V25" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="W25" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="X25" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="Y25" s="38" t="str">
-        <f t="shared" ref="Y25:AM33" ca="1" si="13">IF(AND($C25="Goal",Y$5&gt;=$F25,Y$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",Y$5&gt;=$F25,Y$5&lt;=$F25+$G25-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="Z25" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="AA25" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="AB25" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="AC25" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="AD25" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="AE25" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="AF25" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="AG25" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="AH25" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="AI25" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="AJ25" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="AK25" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="AL25" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="AM25" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="AN25" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AO25" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AP25" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AQ25" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AR25" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AS25" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AT25" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AU25" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AV25" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AW25" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AX25" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AY25" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AZ25" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BA25" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BB25" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BC25" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BD25" s="38" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="BE25" s="38" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="BF25" s="38" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="BG25" s="38" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="BH25" s="38" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="BI25" s="38" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="BJ25" s="38" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="BK25" s="38" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="BL25" s="38" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="38"/>
+      <c r="R25" s="38"/>
+      <c r="S25" s="38"/>
+      <c r="T25" s="38"/>
+      <c r="U25" s="38"/>
+      <c r="V25" s="38"/>
+      <c r="W25" s="38"/>
+      <c r="X25" s="38"/>
+      <c r="Y25" s="38"/>
+      <c r="Z25" s="38"/>
+      <c r="AA25" s="38"/>
+      <c r="AB25" s="38"/>
+      <c r="AC25" s="38"/>
+      <c r="AD25" s="38"/>
+      <c r="AE25" s="38"/>
+      <c r="AF25" s="38"/>
+      <c r="AG25" s="38"/>
+      <c r="AH25" s="38"/>
+      <c r="AI25" s="38"/>
+      <c r="AJ25" s="38"/>
+      <c r="AK25" s="38"/>
+      <c r="AL25" s="38"/>
+      <c r="AM25" s="38"/>
+      <c r="AN25" s="38"/>
+      <c r="AO25" s="38"/>
+      <c r="AP25" s="38"/>
+      <c r="AQ25" s="38"/>
+      <c r="AR25" s="38"/>
+      <c r="AS25" s="38"/>
+      <c r="AT25" s="38"/>
+      <c r="AU25" s="38"/>
+      <c r="AV25" s="38"/>
+      <c r="AW25" s="38"/>
+      <c r="AX25" s="38"/>
+      <c r="AY25" s="38"/>
+      <c r="AZ25" s="38"/>
+      <c r="BA25" s="38"/>
+      <c r="BB25" s="38"/>
+      <c r="BC25" s="38"/>
+      <c r="BD25" s="38"/>
+      <c r="BE25" s="38"/>
+      <c r="BF25" s="38"/>
+      <c r="BG25" s="38"/>
+      <c r="BH25" s="38"/>
+      <c r="BI25" s="38"/>
+      <c r="BJ25" s="38"/>
+      <c r="BK25" s="38"/>
+      <c r="BL25" s="38"/>
     </row>
-    <row r="26" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="14"/>
-      <c r="B26" s="41"/>
+      <c r="B26" s="42" t="s">
+        <v>57</v>
+      </c>
       <c r="C26" s="34"/>
       <c r="D26" s="34"/>
       <c r="E26" s="31"/>
       <c r="F26" s="32"/>
       <c r="G26" s="33"/>
       <c r="H26" s="26"/>
-      <c r="I26" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="J26" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="K26" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="L26" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="M26" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="N26" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="O26" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="P26" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="Q26" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="R26" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="S26" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="T26" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="U26" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="V26" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="W26" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="X26" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="Y26" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="Z26" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="AA26" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="AB26" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="AC26" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="AD26" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="AE26" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="AF26" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="AG26" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="AH26" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="AI26" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="AJ26" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="AK26" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="AL26" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="AM26" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="AN26" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AO26" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AP26" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AQ26" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AR26" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AS26" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AT26" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AU26" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AV26" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AW26" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AX26" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AY26" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AZ26" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BA26" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BB26" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BC26" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BD26" s="38" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="BE26" s="38" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="BF26" s="38" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="BG26" s="38" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="BH26" s="38" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="BI26" s="38" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="BJ26" s="38" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="BK26" s="38" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="BL26" s="38" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="38"/>
+      <c r="O26" s="38"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
+      <c r="S26" s="38"/>
+      <c r="T26" s="38"/>
+      <c r="U26" s="38"/>
+      <c r="V26" s="38"/>
+      <c r="W26" s="38"/>
+      <c r="X26" s="38"/>
+      <c r="Y26" s="38"/>
+      <c r="Z26" s="38"/>
+      <c r="AA26" s="38"/>
+      <c r="AB26" s="38"/>
+      <c r="AC26" s="38"/>
+      <c r="AD26" s="38"/>
+      <c r="AE26" s="38"/>
+      <c r="AF26" s="38"/>
+      <c r="AG26" s="38"/>
+      <c r="AH26" s="38"/>
+      <c r="AI26" s="38"/>
+      <c r="AJ26" s="38"/>
+      <c r="AK26" s="38"/>
+      <c r="AL26" s="38"/>
+      <c r="AM26" s="38"/>
+      <c r="AN26" s="38"/>
+      <c r="AO26" s="38"/>
+      <c r="AP26" s="38"/>
+      <c r="AQ26" s="38"/>
+      <c r="AR26" s="38"/>
+      <c r="AS26" s="38"/>
+      <c r="AT26" s="38"/>
+      <c r="AU26" s="38"/>
+      <c r="AV26" s="38"/>
+      <c r="AW26" s="38"/>
+      <c r="AX26" s="38"/>
+      <c r="AY26" s="38"/>
+      <c r="AZ26" s="38"/>
+      <c r="BA26" s="38"/>
+      <c r="BB26" s="38"/>
+      <c r="BC26" s="38"/>
+      <c r="BD26" s="38"/>
+      <c r="BE26" s="38"/>
+      <c r="BF26" s="38"/>
+      <c r="BG26" s="38"/>
+      <c r="BH26" s="38"/>
+      <c r="BI26" s="38"/>
+      <c r="BJ26" s="38"/>
+      <c r="BK26" s="38"/>
+      <c r="BL26" s="38"/>
     </row>
-    <row r="27" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="14"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="33"/>
+      <c r="B27" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="31">
+        <v>0</v>
+      </c>
+      <c r="F27" s="32">
+        <v>44345</v>
+      </c>
+      <c r="G27" s="33">
+        <v>1</v>
+      </c>
       <c r="H27" s="26"/>
-      <c r="I27" s="38" t="str">
-        <f t="shared" ref="I27:X33" ca="1" si="14">IF(AND($C27="Goal",I$5&gt;=$F27,I$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",I$5&gt;=$F27,I$5&lt;=$F27+$G27-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="J27" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="K27" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="L27" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="M27" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="N27" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="O27" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="P27" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="Q27" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="R27" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="S27" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="T27" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="U27" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="V27" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="W27" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="X27" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="Y27" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="Z27" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="AA27" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="AB27" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="AC27" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="AD27" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="AE27" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="AF27" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="AG27" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="AH27" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="AI27" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="AJ27" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="AK27" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="AL27" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="AM27" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="AN27" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AO27" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AP27" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AQ27" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AR27" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AS27" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AT27" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AU27" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AV27" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AW27" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AX27" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AY27" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AZ27" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BA27" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BB27" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BC27" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BD27" s="38" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="BE27" s="38" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="BF27" s="38" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="BG27" s="38" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="BH27" s="38" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="BI27" s="38" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="BJ27" s="38" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="BK27" s="38" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="BL27" s="38" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="38"/>
+      <c r="O27" s="38"/>
+      <c r="P27" s="38"/>
+      <c r="Q27" s="38"/>
+      <c r="R27" s="38"/>
+      <c r="S27" s="38"/>
+      <c r="T27" s="38"/>
+      <c r="U27" s="38"/>
+      <c r="V27" s="38"/>
+      <c r="W27" s="38"/>
+      <c r="X27" s="38"/>
+      <c r="Y27" s="38"/>
+      <c r="Z27" s="38"/>
+      <c r="AA27" s="38"/>
+      <c r="AB27" s="38"/>
+      <c r="AC27" s="38"/>
+      <c r="AD27" s="38"/>
+      <c r="AE27" s="38"/>
+      <c r="AF27" s="38"/>
+      <c r="AG27" s="38"/>
+      <c r="AH27" s="38"/>
+      <c r="AI27" s="38"/>
+      <c r="AJ27" s="38"/>
+      <c r="AK27" s="38"/>
+      <c r="AL27" s="38"/>
+      <c r="AM27" s="38"/>
+      <c r="AN27" s="38"/>
+      <c r="AO27" s="38"/>
+      <c r="AP27" s="38"/>
+      <c r="AQ27" s="38"/>
+      <c r="AR27" s="38"/>
+      <c r="AS27" s="38"/>
+      <c r="AT27" s="38"/>
+      <c r="AU27" s="38"/>
+      <c r="AV27" s="38"/>
+      <c r="AW27" s="38"/>
+      <c r="AX27" s="38"/>
+      <c r="AY27" s="38"/>
+      <c r="AZ27" s="38"/>
+      <c r="BA27" s="38"/>
+      <c r="BB27" s="38"/>
+      <c r="BC27" s="38"/>
+      <c r="BD27" s="38"/>
+      <c r="BE27" s="38"/>
+      <c r="BF27" s="38"/>
+      <c r="BG27" s="38"/>
+      <c r="BH27" s="38"/>
+      <c r="BI27" s="38"/>
+      <c r="BJ27" s="38"/>
+      <c r="BK27" s="38"/>
+      <c r="BL27" s="38"/>
     </row>
-    <row r="28" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="14"/>
-      <c r="B28" s="41"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="33"/>
+      <c r="B28" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" s="31">
+        <v>0</v>
+      </c>
+      <c r="F28" s="32">
+        <v>44346</v>
+      </c>
+      <c r="G28" s="33">
+        <v>1</v>
+      </c>
       <c r="H28" s="26"/>
-      <c r="I28" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="J28" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="K28" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="L28" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="M28" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="N28" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="O28" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="P28" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="Q28" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="R28" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="S28" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="T28" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="U28" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="V28" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="W28" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="X28" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="Y28" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="Z28" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="AA28" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="AB28" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="AC28" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="AD28" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="AE28" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="AF28" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="AG28" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="AH28" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="AI28" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="AJ28" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="AK28" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="AL28" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="AM28" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="AN28" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AO28" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AP28" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AQ28" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AR28" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AS28" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AT28" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AU28" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AV28" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AW28" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AX28" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AY28" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AZ28" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BA28" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BB28" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BC28" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BD28" s="38" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="BE28" s="38" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="BF28" s="38" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="BG28" s="38" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="BH28" s="38" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="BI28" s="38" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="BJ28" s="38" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="BK28" s="38" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="BL28" s="38" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="38"/>
+      <c r="O28" s="38"/>
+      <c r="P28" s="38"/>
+      <c r="Q28" s="38"/>
+      <c r="R28" s="38"/>
+      <c r="S28" s="38"/>
+      <c r="T28" s="38"/>
+      <c r="U28" s="38"/>
+      <c r="V28" s="38"/>
+      <c r="W28" s="38"/>
+      <c r="X28" s="38"/>
+      <c r="Y28" s="38"/>
+      <c r="Z28" s="38"/>
+      <c r="AA28" s="38"/>
+      <c r="AB28" s="38"/>
+      <c r="AC28" s="38"/>
+      <c r="AD28" s="38"/>
+      <c r="AE28" s="38"/>
+      <c r="AF28" s="38"/>
+      <c r="AG28" s="38"/>
+      <c r="AH28" s="38"/>
+      <c r="AI28" s="38"/>
+      <c r="AJ28" s="38"/>
+      <c r="AK28" s="38"/>
+      <c r="AL28" s="38"/>
+      <c r="AM28" s="38"/>
+      <c r="AN28" s="38"/>
+      <c r="AO28" s="38"/>
+      <c r="AP28" s="38"/>
+      <c r="AQ28" s="38"/>
+      <c r="AR28" s="38"/>
+      <c r="AS28" s="38"/>
+      <c r="AT28" s="38"/>
+      <c r="AU28" s="38"/>
+      <c r="AV28" s="38"/>
+      <c r="AW28" s="38"/>
+      <c r="AX28" s="38"/>
+      <c r="AY28" s="38"/>
+      <c r="AZ28" s="38"/>
+      <c r="BA28" s="38"/>
+      <c r="BB28" s="38"/>
+      <c r="BC28" s="38"/>
+      <c r="BD28" s="38"/>
+      <c r="BE28" s="38"/>
+      <c r="BF28" s="38"/>
+      <c r="BG28" s="38"/>
+      <c r="BH28" s="38"/>
+      <c r="BI28" s="38"/>
+      <c r="BJ28" s="38"/>
+      <c r="BK28" s="38"/>
+      <c r="BL28" s="38"/>
     </row>
-    <row r="29" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="41"/>
+    <row r="29" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="15"/>
+      <c r="B29" s="42" t="s">
+        <v>44</v>
+      </c>
       <c r="C29" s="34"/>
       <c r="D29" s="34"/>
       <c r="E29" s="31"/>
@@ -7260,1245 +5091,4570 @@
       <c r="G29" s="33"/>
       <c r="H29" s="26"/>
       <c r="I29" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="J29" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="K29" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="L29" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="M29" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="N29" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="O29" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="P29" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="Q29" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="R29" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="S29" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="T29" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="U29" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="V29" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="W29" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="X29" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="Y29" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="Z29" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AA29" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AB29" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AC29" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AD29" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AE29" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AF29" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AG29" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AH29" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AI29" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AJ29" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AK29" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AL29" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AM29" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AN29" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AO29" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AP29" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AQ29" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AR29" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AS29" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AT29" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AU29" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AV29" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AW29" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AX29" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AY29" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AZ29" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="BA29" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="BB29" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="BC29" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="BD29" s="38" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="BE29" s="38" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="BF29" s="38" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="BG29" s="38" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="BH29" s="38" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="BI29" s="38" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="BJ29" s="38" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="BK29" s="38" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="BL29" s="38" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="41"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="33"/>
+    <row r="30" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="15"/>
+      <c r="B30" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" s="31">
+        <f>(E10+E11+E12+E13+E14)/10</f>
+        <v>0.43</v>
+      </c>
+      <c r="F30" s="32">
+        <v>44332</v>
+      </c>
+      <c r="G30" s="33">
+        <v>1</v>
+      </c>
       <c r="H30" s="26"/>
       <c r="I30" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="J30" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="K30" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="L30" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="M30" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="N30" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="N30" s="38">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="O30" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="P30" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="Q30" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="R30" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="S30" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="T30" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="U30" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="V30" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="W30" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="X30" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="Y30" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="Z30" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AA30" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AB30" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AC30" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AD30" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AE30" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AF30" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AG30" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AH30" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AI30" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AJ30" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AK30" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AL30" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AM30" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AN30" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AO30" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AP30" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AQ30" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AR30" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AS30" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AT30" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AU30" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AV30" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AW30" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AX30" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AY30" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AZ30" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="BA30" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="BB30" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="BC30" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="BD30" s="38" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="BE30" s="38" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="BF30" s="38" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="BG30" s="38" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="BH30" s="38" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="BI30" s="38" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="BJ30" s="38" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="BK30" s="38" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="BL30" s="38" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="14"/>
-      <c r="B31" s="41"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="33"/>
+      <c r="B31" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" s="31">
+        <v>0</v>
+      </c>
+      <c r="F31" s="32">
+        <v>44342</v>
+      </c>
+      <c r="G31" s="33">
+        <v>1</v>
+      </c>
       <c r="H31" s="26"/>
       <c r="I31" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="J31" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="K31" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="L31" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="M31" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="N31" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="O31" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="P31" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="Q31" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="R31" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="S31" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="T31" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="U31" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="V31" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="W31" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="X31" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="X31" s="38">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="Y31" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="Z31" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AA31" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AB31" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AC31" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AD31" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AE31" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AF31" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AG31" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AH31" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AI31" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AJ31" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AK31" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AL31" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AM31" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AN31" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AO31" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AP31" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AQ31" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AR31" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AS31" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AT31" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AU31" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AV31" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AW31" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AX31" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AY31" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AZ31" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="BA31" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="BB31" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="BC31" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="BD31" s="38" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="BE31" s="38" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="BF31" s="38" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="BG31" s="38" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="BH31" s="38" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="BI31" s="38" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="BJ31" s="38" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="BK31" s="38" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="BL31" s="38" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="14"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="33"/>
+      <c r="B32" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32" s="31">
+        <v>0</v>
+      </c>
+      <c r="F32" s="32">
+        <v>44344</v>
+      </c>
+      <c r="G32" s="33">
+        <v>1</v>
+      </c>
       <c r="H32" s="26"/>
       <c r="I32" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="J32" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="K32" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="L32" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="M32" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="N32" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="O32" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="P32" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="Q32" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="R32" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="S32" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="T32" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="U32" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="V32" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="W32" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="X32" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="Y32" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="Z32" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="Z32" s="38">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
       <c r="AA32" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AB32" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AC32" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AD32" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AE32" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AF32" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AG32" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AH32" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AI32" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AJ32" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AK32" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AL32" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AM32" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AN32" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AO32" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AP32" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AQ32" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AR32" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AS32" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AT32" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AU32" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AV32" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AW32" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AX32" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AY32" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AZ32" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="BA32" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="BB32" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="BC32" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="BD32" s="38" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="BE32" s="38" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="BF32" s="38" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="BG32" s="38" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="BH32" s="38" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="BI32" s="38" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="BJ32" s="38" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="BK32" s="38" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="BL32" s="38" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B33" s="41"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="33"/>
+    <row r="33" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="14"/>
+      <c r="B33" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" s="31">
+        <v>0</v>
+      </c>
+      <c r="F33" s="32">
+        <v>44347</v>
+      </c>
+      <c r="G33" s="33">
+        <v>1</v>
+      </c>
       <c r="H33" s="26"/>
       <c r="I33" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="J33" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="K33" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="L33" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="M33" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="N33" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="O33" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="P33" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="Q33" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="R33" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="S33" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="T33" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="U33" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="V33" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="W33" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="X33" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="Y33" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="Z33" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AA33" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AB33" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="AC33" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AC33" s="38">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
       <c r="AD33" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AE33" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AF33" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AG33" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AH33" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AI33" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AJ33" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AK33" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AL33" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AM33" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AN33" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AO33" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AP33" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AQ33" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AR33" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AS33" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AT33" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AU33" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AV33" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AW33" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AX33" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AY33" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AZ33" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="BA33" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="BB33" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="BC33" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="BD33" s="38" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="BE33" s="38" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="BF33" s="38" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="BG33" s="38" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="BH33" s="38" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="BI33" s="38" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="BJ33" s="38" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="BK33" s="38" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="BL33" s="38" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="14"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="38" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="J34" s="38" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="K34" s="38" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="L34" s="38" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="M34" s="38" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="N34" s="38" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="O34" s="38" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="P34" s="38" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="Q34" s="38" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="R34" s="38" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="S34" s="38" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="T34" s="38" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="U34" s="38" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="V34" s="38" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="W34" s="38" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="X34" s="38" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="Y34" s="38" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="Z34" s="38" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AA34" s="38" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AB34" s="38" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AC34" s="38" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AD34" s="38" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AE34" s="38" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AF34" s="38" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AG34" s="38" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AH34" s="38" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AI34" s="38" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AJ34" s="38" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AK34" s="38" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AL34" s="38" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AM34" s="38" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AN34" s="38" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AO34" s="38" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="AP34" s="38" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="AQ34" s="38" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="AR34" s="38" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="AS34" s="38" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="AT34" s="38" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="AU34" s="38" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="AV34" s="38" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="AW34" s="38" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="AX34" s="38" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="AY34" s="38" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="AZ34" s="38" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="BA34" s="38" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="BB34" s="38" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="BC34" s="38" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="BD34" s="38" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="BE34" s="38" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="BF34" s="38" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="BG34" s="38" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="BH34" s="38" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="BI34" s="38" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="BJ34" s="38" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="BK34" s="38" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="BL34" s="38" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="14"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="38" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="J35" s="38" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="K35" s="38" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="L35" s="38" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="M35" s="38" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="N35" s="38" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="O35" s="38" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="P35" s="38" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="Q35" s="38" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="R35" s="38" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="S35" s="38" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="T35" s="38" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="U35" s="38" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="V35" s="38" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="W35" s="38" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="X35" s="38" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="Y35" s="38" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="Z35" s="38" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AA35" s="38" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AB35" s="38" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AC35" s="38" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AD35" s="38" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AE35" s="38" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AF35" s="38" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AG35" s="38" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AH35" s="38" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AI35" s="38" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AJ35" s="38" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AK35" s="38" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AL35" s="38" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AM35" s="38" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AN35" s="38" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AO35" s="38" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="AP35" s="38" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="AQ35" s="38" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="AR35" s="38" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="AS35" s="38" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="AT35" s="38" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="AU35" s="38" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="AV35" s="38" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="AW35" s="38" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="AX35" s="38" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="AY35" s="38" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="AZ35" s="38" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="BA35" s="38" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="BB35" s="38" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="BC35" s="38" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="BD35" s="38" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="BE35" s="38" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="BF35" s="38" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="BG35" s="38" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="BH35" s="38" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="BI35" s="38" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="BJ35" s="38" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="BK35" s="38" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="BL35" s="38" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="14"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="38" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="J36" s="38" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="K36" s="38" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="L36" s="38" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="M36" s="38" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="N36" s="38" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="O36" s="38" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="P36" s="38" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="Q36" s="38" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="R36" s="38" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="S36" s="38" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="T36" s="38" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="U36" s="38" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="V36" s="38" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="W36" s="38" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="X36" s="38" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="Y36" s="38" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="Z36" s="38" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AA36" s="38" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AB36" s="38" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AC36" s="38" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AD36" s="38" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AE36" s="38" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AF36" s="38" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AG36" s="38" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AH36" s="38" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AI36" s="38" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AJ36" s="38" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AK36" s="38" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AL36" s="38" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AM36" s="38" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AN36" s="38" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AO36" s="38" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="AP36" s="38" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="AQ36" s="38" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="AR36" s="38" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="AS36" s="38" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="AT36" s="38" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="AU36" s="38" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="AV36" s="38" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="AW36" s="38" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="AX36" s="38" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="AY36" s="38" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="AZ36" s="38" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="BA36" s="38" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="BB36" s="38" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="BC36" s="38" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="BD36" s="38" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="BE36" s="38" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="BF36" s="38" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="BG36" s="38" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="BH36" s="38" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="BI36" s="38" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="BJ36" s="38" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="BK36" s="38" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="BL36" s="38" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="14"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="38" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="J37" s="38" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="K37" s="38" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="L37" s="38" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="M37" s="38" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="N37" s="38" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="O37" s="38" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="P37" s="38" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="Q37" s="38" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="R37" s="38" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="S37" s="38" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="T37" s="38" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="U37" s="38" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="V37" s="38" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="W37" s="38" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="X37" s="38" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="Y37" s="38" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="Z37" s="38" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AA37" s="38" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AB37" s="38" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AC37" s="38" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AD37" s="38" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AE37" s="38" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AF37" s="38" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AG37" s="38" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AH37" s="38" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AI37" s="38" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AJ37" s="38" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AK37" s="38" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AL37" s="38" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AM37" s="38" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AN37" s="38" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AO37" s="38" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="AP37" s="38" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="AQ37" s="38" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="AR37" s="38" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="AS37" s="38" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="AT37" s="38" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="AU37" s="38" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="AV37" s="38" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="AW37" s="38" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="AX37" s="38" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="AY37" s="38" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="AZ37" s="38" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="BA37" s="38" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="BB37" s="38" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="BC37" s="38" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="BD37" s="38" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="BE37" s="38" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="BF37" s="38" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="BG37" s="38" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="BH37" s="38" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="BI37" s="38" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="BJ37" s="38" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="BK37" s="38" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="BL37" s="38" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="14"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="38" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="J38" s="38" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="K38" s="38" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="L38" s="38" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="M38" s="38" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="N38" s="38" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="O38" s="38" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="P38" s="38" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="Q38" s="38" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="R38" s="38" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="S38" s="38" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="T38" s="38" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="U38" s="38" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="V38" s="38" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="W38" s="38" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="X38" s="38" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="Y38" s="38" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="Z38" s="38" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AA38" s="38" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AB38" s="38" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AC38" s="38" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AD38" s="38" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AE38" s="38" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AF38" s="38" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AG38" s="38" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AH38" s="38" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AI38" s="38" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AJ38" s="38" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AK38" s="38" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AL38" s="38" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AM38" s="38" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AN38" s="38" t="str">
+        <f t="shared" ref="AN38:BC47" ca="1" si="11">IF(AND($C38="Goal",AN$5&gt;=$F38,AN$5&lt;=$F38+$G38-1),2,IF(AND($C38="Milestone",AN$5&gt;=$F38,AN$5&lt;=$F38+$G38-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AO38" s="38" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="AP38" s="38" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="AQ38" s="38" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="AR38" s="38" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="AS38" s="38" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="AT38" s="38" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="AU38" s="38" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="AV38" s="38" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="AW38" s="38" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="AX38" s="38" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="AY38" s="38" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="AZ38" s="38" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="BA38" s="38" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="BB38" s="38" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="BC38" s="38" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="BD38" s="38" t="str">
+        <f t="shared" ref="BD38:BL47" ca="1" si="12">IF(AND($C38="Goal",BD$5&gt;=$F38,BD$5&lt;=$F38+$G38-1),2,IF(AND($C38="Milestone",BD$5&gt;=$F38,BD$5&lt;=$F38+$G38-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BE38" s="38" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="BF38" s="38" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="BG38" s="38" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="BH38" s="38" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="BI38" s="38" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="BJ38" s="38" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="BK38" s="38" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="BL38" s="38" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="14"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="38" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="J39" s="38" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="K39" s="38" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="L39" s="38" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="M39" s="38" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="N39" s="38" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="O39" s="38" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="P39" s="38" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="Q39" s="38" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="R39" s="38" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="S39" s="38" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="T39" s="38" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="U39" s="38" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="V39" s="38" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="W39" s="38" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="X39" s="38" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="Y39" s="38" t="str">
+        <f t="shared" ref="Y39:AM47" ca="1" si="13">IF(AND($C39="Goal",Y$5&gt;=$F39,Y$5&lt;=$F39+$G39-1),2,IF(AND($C39="Milestone",Y$5&gt;=$F39,Y$5&lt;=$F39+$G39-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="Z39" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AA39" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AB39" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AC39" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AD39" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AE39" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AF39" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AG39" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AH39" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AI39" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AJ39" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AK39" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AL39" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AM39" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AN39" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AO39" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AP39" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AQ39" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AR39" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AS39" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AT39" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AU39" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AV39" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AW39" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AX39" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AY39" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AZ39" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="BA39" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="BB39" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="BC39" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="BD39" s="38" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="BE33" s="38" t="str">
+      <c r="BE39" s="38" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="BF33" s="38" t="str">
+      <c r="BF39" s="38" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="BG33" s="38" t="str">
+      <c r="BG39" s="38" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="BH33" s="38" t="str">
+      <c r="BH39" s="38" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="BI33" s="38" t="str">
+      <c r="BI39" s="38" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="BJ33" s="38" t="str">
+      <c r="BJ39" s="38" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="BK33" s="38" t="str">
+      <c r="BK39" s="38" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="BL33" s="38" t="str">
+      <c r="BL39" s="38" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="15" t="s">
+    <row r="40" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="14"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="38" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="J40" s="38" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="K40" s="38" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="L40" s="38" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="M40" s="38" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="N40" s="38" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="O40" s="38" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="P40" s="38" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="Q40" s="38" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="R40" s="38" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="S40" s="38" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="T40" s="38" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="U40" s="38" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="V40" s="38" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="W40" s="38" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="X40" s="38" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="Y40" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="Z40" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AA40" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AB40" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AC40" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AD40" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AE40" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AF40" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AG40" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AH40" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AI40" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AJ40" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AK40" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AL40" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AM40" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AN40" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AO40" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AP40" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AQ40" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AR40" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AS40" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AT40" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AU40" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AV40" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AW40" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AX40" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AY40" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AZ40" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="BA40" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="BB40" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="BC40" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="BD40" s="38" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BE40" s="38" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BF40" s="38" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BG40" s="38" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BH40" s="38" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BI40" s="38" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BJ40" s="38" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BK40" s="38" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BL40" s="38" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="14"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="38" t="str">
+        <f t="shared" ref="I41:X47" ca="1" si="14">IF(AND($C41="Goal",I$5&gt;=$F41,I$5&lt;=$F41+$G41-1),2,IF(AND($C41="Milestone",I$5&gt;=$F41,I$5&lt;=$F41+$G41-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="J41" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="K41" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="L41" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="M41" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="N41" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="O41" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="P41" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="Q41" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="R41" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="S41" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="T41" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="U41" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="V41" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="W41" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="X41" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="Y41" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="Z41" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AA41" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AB41" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AC41" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AD41" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AE41" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AF41" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AG41" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AH41" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AI41" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AJ41" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AK41" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AL41" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AM41" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AN41" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AO41" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AP41" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AQ41" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AR41" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AS41" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AT41" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AU41" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AV41" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AW41" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AX41" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AY41" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AZ41" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="BA41" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="BB41" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="BC41" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="BD41" s="38" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BE41" s="38" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BF41" s="38" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BG41" s="38" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BH41" s="38" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BI41" s="38" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BJ41" s="38" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BK41" s="38" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BL41" s="38" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="14"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="J42" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="K42" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="L42" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="M42" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="N42" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="O42" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="P42" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="Q42" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="R42" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="S42" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="T42" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="U42" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="V42" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="W42" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="X42" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="Y42" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="Z42" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AA42" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AB42" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AC42" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AD42" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AE42" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AF42" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AG42" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AH42" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AI42" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AJ42" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AK42" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AL42" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AM42" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AN42" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AO42" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AP42" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AQ42" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AR42" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AS42" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AT42" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AU42" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AV42" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AW42" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AX42" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AY42" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AZ42" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="BA42" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="BB42" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="BC42" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="BD42" s="38" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BE42" s="38" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BF42" s="38" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BG42" s="38" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BH42" s="38" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BI42" s="38" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BJ42" s="38" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BK42" s="38" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BL42" s="38" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="14"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="J43" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="K43" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="L43" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="M43" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="N43" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="O43" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="P43" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="Q43" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="R43" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="S43" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="T43" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="U43" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="V43" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="W43" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="X43" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="Y43" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="Z43" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AA43" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AB43" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AC43" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AD43" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AE43" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AF43" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AG43" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AH43" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AI43" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AJ43" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AK43" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AL43" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AM43" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AN43" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AO43" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AP43" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AQ43" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AR43" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AS43" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AT43" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AU43" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AV43" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AW43" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AX43" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AY43" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AZ43" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="BA43" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="BB43" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="BC43" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="BD43" s="38" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BE43" s="38" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BF43" s="38" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BG43" s="38" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BH43" s="38" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BI43" s="38" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BJ43" s="38" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BK43" s="38" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BL43" s="38" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="14"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="J44" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="K44" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="L44" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="M44" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="N44" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="O44" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="P44" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="Q44" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="R44" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="S44" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="T44" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="U44" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="V44" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="W44" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="X44" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="Y44" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="Z44" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AA44" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AB44" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AC44" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AD44" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AE44" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AF44" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AG44" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AH44" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AI44" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AJ44" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AK44" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AL44" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AM44" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AN44" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AO44" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AP44" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AQ44" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AR44" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AS44" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AT44" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AU44" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AV44" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AW44" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AX44" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AY44" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AZ44" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="BA44" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="BB44" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="BC44" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="BD44" s="38" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BE44" s="38" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BF44" s="38" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BG44" s="38" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BH44" s="38" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BI44" s="38" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BJ44" s="38" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BK44" s="38" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BL44" s="38" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="14"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="J45" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="K45" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="L45" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="M45" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="N45" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="O45" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="P45" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="Q45" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="R45" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="S45" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="T45" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="U45" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="V45" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="W45" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="X45" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="Y45" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="Z45" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AA45" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AB45" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AC45" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AD45" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AE45" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AF45" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AG45" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AH45" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AI45" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AJ45" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AK45" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AL45" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AM45" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AN45" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AO45" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AP45" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AQ45" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AR45" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AS45" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AT45" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AU45" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AV45" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AW45" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AX45" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AY45" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AZ45" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="BA45" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="BB45" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="BC45" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="BD45" s="38" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BE45" s="38" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BF45" s="38" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BG45" s="38" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BH45" s="38" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BI45" s="38" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BJ45" s="38" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BK45" s="38" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BL45" s="38" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="14"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="J46" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="K46" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="L46" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="M46" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="N46" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="O46" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="P46" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="Q46" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="R46" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="S46" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="T46" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="U46" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="V46" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="W46" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="X46" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="Y46" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="Z46" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AA46" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AB46" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AC46" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AD46" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AE46" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AF46" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AG46" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AH46" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AI46" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AJ46" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AK46" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AL46" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AM46" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AN46" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AO46" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AP46" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AQ46" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AR46" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AS46" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AT46" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AU46" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AV46" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AW46" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AX46" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AY46" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AZ46" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="BA46" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="BB46" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="BC46" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="BD46" s="38" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BE46" s="38" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BF46" s="38" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BG46" s="38" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BH46" s="38" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BI46" s="38" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BJ46" s="38" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BK46" s="38" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BL46" s="38" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47" s="41"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="J47" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="K47" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="L47" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="M47" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="N47" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="O47" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="P47" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="Q47" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="R47" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="S47" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="T47" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="U47" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="V47" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="W47" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="X47" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="Y47" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="Z47" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AA47" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AB47" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AC47" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AD47" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AE47" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AF47" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AG47" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AH47" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AI47" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AJ47" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AK47" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AL47" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AM47" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AN47" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AO47" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AP47" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AQ47" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AR47" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AS47" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AT47" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AU47" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AV47" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AW47" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AX47" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AY47" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AZ47" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="BA47" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="BB47" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="BC47" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="BD47" s="38" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BE47" s="38" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BF47" s="38" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BG47" s="38" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BH47" s="38" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BI47" s="38" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BJ47" s="38" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BK47" s="38" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BL47" s="38" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="24" t="s">
+      <c r="B48" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="37"/>
-      <c r="J34" s="37"/>
-      <c r="K34" s="37"/>
-      <c r="L34" s="37"/>
-      <c r="M34" s="37"/>
-      <c r="N34" s="37"/>
-      <c r="O34" s="37"/>
-      <c r="P34" s="37"/>
-      <c r="Q34" s="37"/>
-      <c r="R34" s="37"/>
-      <c r="S34" s="37"/>
-      <c r="T34" s="37"/>
-      <c r="U34" s="37"/>
-      <c r="V34" s="37"/>
-      <c r="W34" s="37"/>
-      <c r="X34" s="37"/>
-      <c r="Y34" s="37"/>
-      <c r="Z34" s="37"/>
-      <c r="AA34" s="37"/>
-      <c r="AB34" s="37"/>
-      <c r="AC34" s="37"/>
-      <c r="AD34" s="37"/>
-      <c r="AE34" s="37"/>
-      <c r="AF34" s="37"/>
-      <c r="AG34" s="37"/>
-      <c r="AH34" s="37"/>
-      <c r="AI34" s="37"/>
-      <c r="AJ34" s="37"/>
-      <c r="AK34" s="37"/>
-      <c r="AL34" s="37"/>
-      <c r="AM34" s="37"/>
-      <c r="AN34" s="37"/>
-      <c r="AO34" s="37"/>
-      <c r="AP34" s="37"/>
-      <c r="AQ34" s="37"/>
-      <c r="AR34" s="37"/>
-      <c r="AS34" s="37"/>
-      <c r="AT34" s="37"/>
-      <c r="AU34" s="37"/>
-      <c r="AV34" s="37"/>
-      <c r="AW34" s="37"/>
-      <c r="AX34" s="37"/>
-      <c r="AY34" s="37"/>
-      <c r="AZ34" s="37"/>
-      <c r="BA34" s="37"/>
-      <c r="BB34" s="37"/>
-      <c r="BC34" s="37"/>
-      <c r="BD34" s="37"/>
-      <c r="BE34" s="37"/>
-      <c r="BF34" s="37"/>
-      <c r="BG34" s="37"/>
-      <c r="BH34" s="37"/>
-      <c r="BI34" s="37"/>
-      <c r="BJ34" s="37"/>
-      <c r="BK34" s="37"/>
-      <c r="BL34" s="37"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="39"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="37"/>
+      <c r="K48" s="37"/>
+      <c r="L48" s="37"/>
+      <c r="M48" s="37"/>
+      <c r="N48" s="37"/>
+      <c r="O48" s="37"/>
+      <c r="P48" s="37"/>
+      <c r="Q48" s="37"/>
+      <c r="R48" s="37"/>
+      <c r="S48" s="37"/>
+      <c r="T48" s="37"/>
+      <c r="U48" s="37"/>
+      <c r="V48" s="37"/>
+      <c r="W48" s="37"/>
+      <c r="X48" s="37"/>
+      <c r="Y48" s="37"/>
+      <c r="Z48" s="37"/>
+      <c r="AA48" s="37"/>
+      <c r="AB48" s="37"/>
+      <c r="AC48" s="37"/>
+      <c r="AD48" s="37"/>
+      <c r="AE48" s="37"/>
+      <c r="AF48" s="37"/>
+      <c r="AG48" s="37"/>
+      <c r="AH48" s="37"/>
+      <c r="AI48" s="37"/>
+      <c r="AJ48" s="37"/>
+      <c r="AK48" s="37"/>
+      <c r="AL48" s="37"/>
+      <c r="AM48" s="37"/>
+      <c r="AN48" s="37"/>
+      <c r="AO48" s="37"/>
+      <c r="AP48" s="37"/>
+      <c r="AQ48" s="37"/>
+      <c r="AR48" s="37"/>
+      <c r="AS48" s="37"/>
+      <c r="AT48" s="37"/>
+      <c r="AU48" s="37"/>
+      <c r="AV48" s="37"/>
+      <c r="AW48" s="37"/>
+      <c r="AX48" s="37"/>
+      <c r="AY48" s="37"/>
+      <c r="AZ48" s="37"/>
+      <c r="BA48" s="37"/>
+      <c r="BB48" s="37"/>
+      <c r="BC48" s="37"/>
+      <c r="BD48" s="37"/>
+      <c r="BE48" s="37"/>
+      <c r="BF48" s="37"/>
+      <c r="BG48" s="37"/>
+      <c r="BH48" s="37"/>
+      <c r="BI48" s="37"/>
+      <c r="BJ48" s="37"/>
+      <c r="BK48" s="37"/>
+      <c r="BL48" s="37"/>
     </row>
-    <row r="35" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D35" s="5"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="4"/>
+    <row r="49" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D49" s="5"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="4"/>
     </row>
-    <row r="36" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D36" s="6"/>
+    <row r="50" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D50" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -8512,7 +9668,7 @@
     <mergeCell ref="N2:Q2"/>
     <mergeCell ref="S2:V2"/>
   </mergeCells>
-  <conditionalFormatting sqref="E7:E33">
+  <conditionalFormatting sqref="E7:E47">
     <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8526,57 +9682,57 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL34">
-    <cfRule type="expression" dxfId="16" priority="1">
+  <conditionalFormatting sqref="I5:BL48">
+    <cfRule type="expression" dxfId="13" priority="1">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:AM4">
-    <cfRule type="expression" dxfId="15" priority="7">
+    <cfRule type="expression" dxfId="12" priority="7">
       <formula>I$5&lt;=EOMONTH($I$5,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:BL4">
-    <cfRule type="expression" dxfId="14" priority="3">
+    <cfRule type="expression" dxfId="11" priority="3">
       <formula>AND(J$5&lt;=EOMONTH($I$5,2),J$5&gt;EOMONTH($I$5,0),J$5&gt;EOMONTH($I$5,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:BL4">
-    <cfRule type="expression" dxfId="13" priority="2">
+    <cfRule type="expression" dxfId="10" priority="2">
       <formula>AND(I$5&lt;=EOMONTH($I$5,1),I$5&gt;EOMONTH($I$5,0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8:BL33">
-    <cfRule type="expression" dxfId="12" priority="24" stopIfTrue="1">
+  <conditionalFormatting sqref="I8:BL47">
+    <cfRule type="expression" dxfId="9" priority="24" stopIfTrue="1">
       <formula>AND($C8="Low Risk",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="43" stopIfTrue="1">
       <formula>AND($C8="High Risk",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="61" stopIfTrue="1">
       <formula>AND($C8="On Track",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="62" stopIfTrue="1">
       <formula>AND($C8="Med Risk",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="63" stopIfTrue="1">
       <formula>AND(LEN($C8)=0,I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I34:BL34">
-    <cfRule type="expression" dxfId="7" priority="71" stopIfTrue="1">
+  <conditionalFormatting sqref="I48:BL48">
+    <cfRule type="expression" dxfId="4" priority="71" stopIfTrue="1">
       <formula>AND(#REF!="Low Risk",I$5&gt;=#REF!,I$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="72" stopIfTrue="1">
       <formula>AND(#REF!="High Risk",I$5&gt;=#REF!,I$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="73" stopIfTrue="1">
       <formula>AND(#REF!="On Track",I$5&gt;=#REF!,I$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="74" stopIfTrue="1">
       <formula>AND(#REF!="Med Risk",I$5&gt;=#REF!,I$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="75" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,I$5&gt;=#REF!,I$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8584,7 +9740,7 @@
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Scrolling Increment" prompt="Changing this number will scroll the Gantt Chart view." sqref="F4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C10:C33" xr:uid="{5196C805-6432-41E6-873E-6E411B98A976}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C10:C47" xr:uid="{5196C805-6432-41E6-873E-6E411B98A976}">
       <formula1>"Goal,Milestone,On Track, Low Risk, Med Risk, High Risk"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="C9" xr:uid="{77D76407-42C8-4F92-8CBE-1B847121E7CF}">
@@ -8609,7 +9765,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>28575</xdr:colOff>
+                    <xdr:colOff>31750</xdr:colOff>
                     <xdr:row>5</xdr:row>
                     <xdr:rowOff>57150</xdr:rowOff>
                   </from>
@@ -8617,7 +9773,7 @@
                     <xdr:col>63</xdr:col>
                     <xdr:colOff>228600</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>238125</xdr:rowOff>
+                    <xdr:rowOff>241300</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -8646,26 +9802,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E7:E33</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="9" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
-            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="1"/>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>I8:BL33</xm:sqref>
+          <xm:sqref>E7:E47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="70" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
@@ -8684,7 +9821,26 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>I34:BL34</xm:sqref>
+          <xm:sqref>I48:BL48</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="90" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I8:BL47</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -8700,33 +9856,33 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="87.140625" style="10" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="87.1796875" style="10" customWidth="1"/>
+    <col min="2" max="16384" width="9.1796875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="9" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" s="9" customFormat="1" ht="26" x14ac:dyDescent="0.6">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="84.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" ht="84.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" s="10" customFormat="1" ht="204.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" s="10" customFormat="1" ht="205" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>26</v>
       </c>

--- a/01_PROJECT_MANAGEMENT/Gantt_Chart.xlsx
+++ b/01_PROJECT_MANAGEMENT/Gantt_Chart.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64340F8B-2220-4ACC-879E-25A09B763434}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A7752C-4220-4B52-A43B-FE270FCDF4EA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -215,9 +215,6 @@
     <t>Transitions</t>
   </si>
   <si>
-    <t>Resize responisveness</t>
-  </si>
-  <si>
     <t>Aesthetics</t>
   </si>
   <si>
@@ -237,6 +234,9 @@
   </si>
   <si>
     <t>Presentation Practice</t>
+  </si>
+  <si>
+    <t>Responsive-resize</t>
   </si>
 </sst>
 </file>
@@ -818,6 +818,15 @@
   </cellStyles>
   <dxfs count="29">
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="2" tint="-9.9948118533890809E-2"/>
@@ -1098,15 +1107,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border>
@@ -1429,9 +1429,9 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{EE48C34E-B98C-4BBA-90C8-388E8655DD6D}" name="Milestone Description" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{B8ACC97F-C189-49BA-91CF-CB5671185BCF}" name="Category" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{5419FA1B-A035-4F0A-9257-1AA4BCB5E6CF}" name="Assigned To" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{EE48C34E-B98C-4BBA-90C8-388E8655DD6D}" name="Milestone Description" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{B8ACC97F-C189-49BA-91CF-CB5671185BCF}" name="Category" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{5419FA1B-A035-4F0A-9257-1AA4BCB5E6CF}" name="Assigned To" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{A60A6524-18F0-48B7-BB3C-2F4A35799FF7}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{59612C1F-9AAB-483B-A6A5-3563E9D77941}" name="Start" dataCellStyle="Date"/>
     <tableColumn id="6" xr3:uid="{012C59F1-49D4-4A67-B8DD-855C6581FD6A}" name="No. Days" dataCellStyle="Comma [0]"/>
@@ -1713,8 +1713,8 @@
   </sheetPr>
   <dimension ref="A1:BL50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A10" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="G1" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="AL5" sqref="AL5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3039,7 +3039,7 @@
         <v>43</v>
       </c>
       <c r="E11" s="31">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="F11" s="32">
         <v>44327</v>
@@ -3285,7 +3285,7 @@
         <v>42</v>
       </c>
       <c r="E12" s="31">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F12" s="32">
         <v>44327</v>
@@ -3531,7 +3531,7 @@
         <v>43</v>
       </c>
       <c r="E13" s="31">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="F13" s="32">
         <v>44327</v>
@@ -4014,7 +4014,7 @@
     <row r="15" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="14"/>
       <c r="B15" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" s="34"/>
       <c r="D15" s="34"/>
@@ -4082,7 +4082,7 @@
     <row r="16" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="14"/>
       <c r="B16" s="41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" s="34" t="s">
         <v>11</v>
@@ -4554,7 +4554,7 @@
     <row r="22" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="14"/>
       <c r="B22" s="42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C22" s="34"/>
       <c r="D22" s="34"/>
@@ -4701,7 +4701,7 @@
     <row r="24" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="14"/>
       <c r="B24" s="41" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C24" s="34" t="s">
         <v>11</v>
@@ -4780,7 +4780,7 @@
     <row r="25" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="14"/>
       <c r="B25" s="41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C25" s="34" t="s">
         <v>11</v>
@@ -4858,7 +4858,7 @@
     <row r="26" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="14"/>
       <c r="B26" s="42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" s="34"/>
       <c r="D26" s="34"/>
@@ -4926,7 +4926,7 @@
     <row r="27" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="14"/>
       <c r="B27" s="41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C27" s="34" t="s">
         <v>11</v>
@@ -5004,7 +5004,7 @@
     <row r="28" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="14"/>
       <c r="B28" s="41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C28" s="34" t="s">
         <v>11</v>
@@ -5327,8 +5327,7 @@
         <v>41</v>
       </c>
       <c r="E30" s="31">
-        <f>(E10+E11+E12+E13+E14)/10</f>
-        <v>0.43</v>
+        <v>1</v>
       </c>
       <c r="F30" s="32">
         <v>44332</v>
@@ -5565,7 +5564,7 @@
     <row r="31" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="14"/>
       <c r="B31" s="41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C31" s="34" t="s">
         <v>5</v>
@@ -5811,7 +5810,7 @@
     <row r="32" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="14"/>
       <c r="B32" s="41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C32" s="34" t="s">
         <v>5</v>
@@ -6057,7 +6056,7 @@
     <row r="33" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="14"/>
       <c r="B33" s="41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C33" s="34" t="s">
         <v>5</v>
@@ -9683,56 +9682,56 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:BL48">
-    <cfRule type="expression" dxfId="13" priority="1">
+    <cfRule type="expression" dxfId="16" priority="1">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:AM4">
-    <cfRule type="expression" dxfId="12" priority="7">
+    <cfRule type="expression" dxfId="15" priority="7">
       <formula>I$5&lt;=EOMONTH($I$5,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:BL4">
-    <cfRule type="expression" dxfId="11" priority="3">
+    <cfRule type="expression" dxfId="14" priority="3">
       <formula>AND(J$5&lt;=EOMONTH($I$5,2),J$5&gt;EOMONTH($I$5,0),J$5&gt;EOMONTH($I$5,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:BL4">
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="13" priority="2">
       <formula>AND(I$5&lt;=EOMONTH($I$5,1),I$5&gt;EOMONTH($I$5,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:BL47">
-    <cfRule type="expression" dxfId="9" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="24" stopIfTrue="1">
       <formula>AND($C8="Low Risk",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="43" stopIfTrue="1">
       <formula>AND($C8="High Risk",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="61" stopIfTrue="1">
       <formula>AND($C8="On Track",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="62" stopIfTrue="1">
       <formula>AND($C8="Med Risk",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="63" stopIfTrue="1">
       <formula>AND(LEN($C8)=0,I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I48:BL48">
-    <cfRule type="expression" dxfId="4" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="71" stopIfTrue="1">
       <formula>AND(#REF!="Low Risk",I$5&gt;=#REF!,I$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="72" stopIfTrue="1">
       <formula>AND(#REF!="High Risk",I$5&gt;=#REF!,I$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="73" stopIfTrue="1">
       <formula>AND(#REF!="On Track",I$5&gt;=#REF!,I$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="74" stopIfTrue="1">
       <formula>AND(#REF!="Med Risk",I$5&gt;=#REF!,I$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="75" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,I$5&gt;=#REF!,I$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/01_PROJECT_MANAGEMENT/Gantt_Chart.xlsx
+++ b/01_PROJECT_MANAGEMENT/Gantt_Chart.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A7752C-4220-4B52-A43B-FE270FCDF4EA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6BB97B4-458F-49BD-8A98-4AEA9F9C28D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1713,8 +1713,8 @@
   </sheetPr>
   <dimension ref="A1:BL50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="G1" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="AL5" sqref="AL5"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A13" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4091,7 +4091,7 @@
         <v>42</v>
       </c>
       <c r="E16" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="32">
         <v>44333</v>
@@ -4169,7 +4169,7 @@
         <v>42</v>
       </c>
       <c r="E17" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="32">
         <f>F16+G16</f>
@@ -4248,7 +4248,7 @@
         <v>43</v>
       </c>
       <c r="E18" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="32">
         <v>44333</v>
